--- a/稽核/隆回/仓库/现抽汇总表.xlsx
+++ b/稽核/隆回/仓库/现抽汇总表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,11 +541,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20210203066</v>
+        <v>20210203049</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>22:01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -555,46 +555,46 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>钻石7</t>
+          <t>总裁5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>方块A*38</t>
+          <t>(叁仟)V粉*4+香槟*1</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>袁鹏</t>
+          <t>陈江华</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20210203035</v>
+        <v>20210203032</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21:51</t>
+          <t>22:19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PARTY9</t>
+          <t>总裁1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(叁仟)幕威*3+R香槟*5</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -617,17 +617,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>礼宾部</t>
+          <t>销-9部</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>李龙江</t>
+          <t>范晓杰</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>会员本金,现金</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -658,7 +658,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>方块A*22</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -688,11 +688,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20210203049</v>
+        <v>20210203066</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22:01</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -702,46 +702,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>总裁5</t>
+          <t>钻石7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(叁仟)V粉*4+香槟*1</t>
+          <t>方块A*38</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>陈江华</t>
+          <t>袁鹏</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20210203032</v>
+        <v>20210203035</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22:19</t>
+          <t>21:51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -751,12 +751,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>总裁1</t>
+          <t>PARTY9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>(叁仟)幕威*3+R香槟*5</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -764,17 +764,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>销-9部</t>
+          <t>礼宾部</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>范晓杰</t>
+          <t>李龙江</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,现金</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>方块A*22</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1031,11 +1031,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20210203048</v>
+        <v>20210203023</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>总裁3</t>
+          <t>PARTY2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1058,17 +1058,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>销-2部</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>欧阳悦</t>
+          <t>郑小龙</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1080,11 +1080,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20210203052</v>
+        <v>20210203041</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23:02</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>V16</t>
+          <t>V05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>陈江华</t>
+          <t>黄生权</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1129,11 +1129,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20210203028</v>
+        <v>20210203044</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>21:25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PARTY1</t>
+          <t>总裁9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>销-6部</t>
+          <t>商务部</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>袁兵</t>
+          <t>袁晓春</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1178,11 +1178,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20210203023</v>
+        <v>20210203048</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PARTY2</t>
+          <t>总裁3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1205,17 +1205,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>销-2部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>郑小龙</t>
+          <t>欧阳悦</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1227,11 +1227,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20210203041</v>
+        <v>20210203052</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22:10</t>
+          <t>23:02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>V05</t>
+          <t>V16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1254,17 +1254,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>黄生权</t>
+          <t>陈江华</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1276,11 +1276,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20210203044</v>
+        <v>20210203028</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21:25</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>总裁9</t>
+          <t>PARTY1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1303,17 +1303,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>商务部</t>
+          <t>销-6部</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>袁晓春</t>
+          <t>袁兵</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1325,11 +1325,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20210204058</v>
+        <v>20210204063</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23:01</t>
+          <t>23:19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>钻石3</t>
+          <t>PARTY7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>宝诗来*2+香槟*1</t>
+          <t>(伍仟)慕威*9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1352,17 +1352,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>销-9部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>黄佳</t>
+          <t>陈波</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>pos,会员本金</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1374,11 +1374,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20210204058</v>
+        <v>20210204042</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23:01</t>
+          <t>21:41</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1388,25 +1388,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>钻石3</t>
+          <t>总裁2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(伍仟)宝诗来*2+香槟*1</t>
+          <t>(叁仟)幕威*3+R香槟*5</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>销-9部</t>
+          <t>销-2部</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>黄佳</t>
+          <t>周伟</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1418,16 +1418,16 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20210204063</v>
+        <v>20210204074</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23:19</t>
+          <t>00:49</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PARTY7</t>
+          <t>总裁5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>慕威*9</t>
+          <t>(伍仟)宝诗来*2+香槟*1</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>陈波</t>
+          <t>袁鹏</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1472,11 +1472,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20210204063</v>
+        <v>20210204018</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23:19</t>
+          <t>20:53</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1486,46 +1486,46 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PARTY7</t>
+          <t>总裁6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(伍仟)慕威*9</t>
+          <t>(叁仟)幕威*3+R香槟*5</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>销-6部</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>陈波</t>
+          <t>陈辰子</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20210204074</v>
+        <v>20210204058</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>00:49</t>
+          <t>23:01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1535,12 +1535,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>总裁5</t>
+          <t>钻石3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(伍仟)宝诗来*2+香槟*1</t>
+          <t>宝诗来*2+香槟*1</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1548,17 +1548,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>销-9部</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>袁鹏</t>
+          <t>黄佳</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>pos,会员本金</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1570,11 +1570,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20210204018</v>
+        <v>20210204063</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20:53</t>
+          <t>23:19</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1584,46 +1584,46 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>总裁6</t>
+          <t>PARTY7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(叁仟)幕威*3+R香槟*5</t>
+          <t>慕威*9</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>销-6部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>陈辰子</t>
+          <t>陈波</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20210204042</v>
+        <v>20210204058</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21:41</t>
+          <t>23:01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1633,25 +1633,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>总裁2</t>
+          <t>钻石3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(叁仟)幕威*3+R香槟*5</t>
+          <t>(伍仟)宝诗来*2+香槟*1</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>销-2部</t>
+          <t>销-9部</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>周伟</t>
+          <t>黄佳</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1663,16 +1663,16 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20210204043</v>
+        <v>20210204048</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23:45</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>总裁10</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>销-2部</t>
+          <t>销-9部</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>郑小龙</t>
+          <t>刘玲</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1717,11 +1717,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20210204065</v>
+        <v>20210204045</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>23:33</t>
+          <t>21:58</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>总裁7</t>
+          <t>总裁5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>销-5部</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>袁鹏</t>
+          <t>史若惜</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1766,11 +1766,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20210204074</v>
+        <v>20210204064</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>00:49</t>
+          <t>23:37</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1780,46 +1780,46 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>总裁5</t>
+          <t>PARTY10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>宝诗来*2+香槟*1</t>
+          <t>(叁仟)幕威*3+R香槟*5</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>袁鹏</t>
+          <t>张彪</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,现金</t>
         </is>
       </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20210204037</v>
+        <v>20210204065</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>00:29</t>
+          <t>23:33</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1829,16 +1829,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>V05</t>
+          <t>总裁7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>方块A一条龙</t>
+          <t>(叁仟)幕威*3+R香槟*5</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1780</v>
+        <v>3000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>欧阳悦</t>
+          <t>袁鹏</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1864,11 +1864,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20210204045</v>
+        <v>20210204074</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>00:49</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1883,41 +1883,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(叁仟)幕威*3+R香槟*5</t>
+          <t>宝诗来*2+香槟*1</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>销-5部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>史若惜</t>
+          <t>袁鹏</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20210204064</v>
+        <v>20210204037</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23:37</t>
+          <t>00:29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1927,30 +1927,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PARTY10</t>
+          <t>V05</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(叁仟)幕威*3+R香槟*5</t>
+          <t>方块A一条龙</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3000</v>
+        <v>1780</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>张彪</t>
+          <t>欧阳悦</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>会员本金,现金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -1962,11 +1962,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20210204048</v>
+        <v>20210204043</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>23:45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>总裁10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1989,17 +1989,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>销-9部</t>
+          <t>销-2部</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>刘玲</t>
+          <t>郑小龙</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2060,11 +2060,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20210205008</v>
+        <v>20210205026</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21:13</t>
+          <t>20:56</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2074,37 +2074,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>V02</t>
+          <t>总裁2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>(伍仟)慕威*9</t>
+          <t>(叁仟)幕威*3+R香槟*5</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-6部</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>陈江华</t>
+          <t>肖豪</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -2158,11 +2158,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20210205026</v>
+        <v>20210205049</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20:56</t>
+          <t>21:42</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>总裁2</t>
+          <t>总裁3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>销-6部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>肖豪</t>
+          <t>欧阳悦</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2256,11 +2256,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20210205049</v>
+        <v>20210205028</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>21:42</t>
+          <t>21:06</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>总裁3</t>
+          <t>钻石3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>销-3部</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>欧阳悦</t>
+          <t>黄不平</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2305,11 +2305,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20210205028</v>
+        <v>20210205008</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>21:06</t>
+          <t>21:13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2319,46 +2319,46 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>钻石3</t>
+          <t>V02</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>(叁仟)幕威*3+R香槟*5</t>
+          <t>(伍仟)慕威*9</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>销-3部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>黄不平</t>
+          <t>陈江华</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20210205054</v>
+        <v>20210205065</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>钻石2</t>
+          <t>总裁1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2381,17 +2381,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>销-5部</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>蒋海念</t>
+          <t>史若惜</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2452,11 +2452,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20210205061</v>
+        <v>20210205054</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>23:23</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2466,12 +2466,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>V12</t>
+          <t>钻石2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>(叁仟)慕V*5+R香槟*1</t>
+          <t>(叁仟)幕威*3+R香槟*5</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2479,17 +2479,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>总经办</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>符川疆</t>
+          <t>蒋海念</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2550,11 +2550,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20210205031</v>
+        <v>20210205061</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22:03</t>
+          <t>23:23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2564,12 +2564,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>总裁6</t>
+          <t>V12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>(叁仟)幕威*3+R香槟*5</t>
+          <t>(叁仟)慕V*5+R香槟*1</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2577,12 +2577,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>总经办</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>陈健</t>
+          <t>符川疆</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2648,11 +2648,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20210205065</v>
+        <v>20210205031</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>22:03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>总裁1</t>
+          <t>总裁6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>销-5部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>史若惜</t>
+          <t>陈健</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3379,6 +3379,692 @@
       </c>
       <c r="K60" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20210208011</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>20:58</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>钻石9</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>郭冰</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>会员本金,微信</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20210208014</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>00:12</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PARTY2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>销-3部</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>孙先泽</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>会员本金</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20210208019</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>21:13</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>总裁9</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>销-9部</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>刘玲</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>20210208006</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>22:49</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>总裁6</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>(叁仟)方块A*22</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>礼宾部</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>李龙江</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>微信,现金</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>20210208008</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>20:35</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>总裁1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>销-8部</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>张永明</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>20210208020</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PARTY11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>销-9部</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>廖细水</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>会员本金,现金</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20210208031</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>22:52</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PARTY8</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>张彪</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>会员本金</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>20210208054</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>钻石2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>方块A一条龙</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>销-8部</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>欧阳悦</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>20210208055</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>00:44</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>销-8部</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>蒋海念</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20210208040</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>21:40</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>V17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>销-8部</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>颜庆发</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>20210208045</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PARTY9</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>陈健</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>会员本金</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>20210208053</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>22:35</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PARTY1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>陈健</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>pos,会员本金</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>20210208055</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>23:11</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>(叁仟)幕威*3+R香槟*5</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>销-8部</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>蒋海念</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>会员本金,微信</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>20210208059</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>23:47</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>V05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>(伍仟)宝诗来*2+香槟*1</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>销-3部</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>范贵长</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>会员本金</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
